--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royfr474/github/workshop-ngsintro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahlo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812C6ADD-D396-F84B-A508-1E1E8575759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F6188-C9BC-4D00-A49B-9A0E3B860F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="880" windowWidth="28880" windowHeight="18860" xr2:uid="{4D37F018-551B-CF4D-85BF-2DD74B664EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{4D37F018-551B-CF4D-85BF-2DD74B664EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>date</t>
   </si>
@@ -188,60 +187,24 @@
     <t>Martin Dahlö</t>
   </si>
   <si>
-    <t>topics/linux/slide_linux_intro.pdf</t>
-  </si>
-  <si>
     <t>topics/linux/lab_linux_intro.html</t>
   </si>
   <si>
-    <t>topics/linux/slide_linux_filetypes.pdf</t>
-  </si>
-  <si>
     <t>topics/linux/lab_linux_filetypes.html</t>
   </si>
   <si>
-    <t>topics/linux/slide_qol_termexp.pdf</t>
-  </si>
-  <si>
-    <t>topics/other/slide_qc.pdf</t>
-  </si>
-  <si>
     <t>topics/other/lab_qc.html</t>
   </si>
   <si>
-    <t>topics/linux/slide_linux_advanced.pdf</t>
-  </si>
-  <si>
     <t>topics/linux/lab_linux_advanced.html</t>
   </si>
   <si>
-    <t>topics/other/slide_sequencing.pdf</t>
-  </si>
-  <si>
-    <t>topics/other/slide_ngs_pipelines.pdf</t>
-  </si>
-  <si>
-    <t>topics/vc/slide_vc.pdf</t>
-  </si>
-  <si>
     <t>topics/vc/lab_vc.html</t>
   </si>
   <si>
-    <t>topics/rnaseq/slide_rnaseq.html</t>
-  </si>
-  <si>
     <t>topics/rnaseq/lab_rnaseq.html</t>
   </si>
   <si>
-    <t>topics/other/slide_data_management.pdf</t>
-  </si>
-  <si>
-    <t>topics/other/slide_nbis.pdf</t>
-  </si>
-  <si>
-    <t>topics/uppmax/intro/slide_uppmax_intro.pdf</t>
-  </si>
-  <si>
     <t>topics/uppmax/intro/lab_uppmax_intro.html</t>
   </si>
   <si>
@@ -302,7 +265,7 @@
     <t>GD</t>
   </si>
   <si>
-    <t>topics/other/slide_introduction.pdf</t>
+    <t>https://dahlo.github.io/workshop-ngsintro-slides/2311/slide_linux_intro.pdf</t>
   </si>
 </sst>
 </file>
@@ -689,23 +652,23 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,9 +703,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -759,11 +722,11 @@
       <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -776,14 +739,14 @@
       <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
-        <v>42</v>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>0.4375</v>
       </c>
@@ -797,13 +760,13 @@
         <v>41</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -814,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -827,14 +790,14 @@
       <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
-        <v>59</v>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -848,15 +811,15 @@
         <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>0.375</v>
@@ -870,14 +833,14 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
-        <v>44</v>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -891,13 +854,13 @@
         <v>41</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -910,14 +873,14 @@
       <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
-        <v>46</v>
+      <c r="H10" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -928,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -939,22 +902,22 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -967,14 +930,14 @@
       <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
-        <v>49</v>
+      <c r="H13" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>0.625</v>
       </c>
@@ -988,15 +951,15 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>0.375</v>
@@ -1008,16 +971,16 @@
         <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -1028,10 +991,10 @@
         <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -1042,16 +1005,16 @@
         <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>0.5</v>
       </c>
@@ -1062,7 +1025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1073,16 +1036,16 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1093,16 +1056,16 @@
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>0.75</v>
       </c>
@@ -1113,9 +1076,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1">
         <v>0.375</v>
@@ -1127,13 +1090,13 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -1144,13 +1107,13 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -1161,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1172,16 +1135,16 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1192,18 +1155,18 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>0.375</v>
@@ -1215,13 +1178,13 @@
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -1232,7 +1195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1243,16 +1206,16 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1263,10 +1226,10 @@
         <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>40</v>
@@ -1287,6 +1250,19 @@
     <hyperlink ref="J29" r:id="rId11" xr:uid="{F483A2BD-2142-5648-A8EB-B4728BAA1657}"/>
     <hyperlink ref="J22" r:id="rId12" xr:uid="{0D00596C-087D-494E-8926-7035EF4B08C2}"/>
     <hyperlink ref="J30" r:id="rId13" xr:uid="{32B5CF1E-0D17-1D49-9761-33EB8B009E8C}"/>
+    <hyperlink ref="H2" r:id="rId14" xr:uid="{69821DDD-802B-46EA-9F29-877E5AD5BFC5}"/>
+    <hyperlink ref="H3" r:id="rId15" xr:uid="{DF7FD375-364A-4625-AA0B-069F375A2B27}"/>
+    <hyperlink ref="H6" r:id="rId16" xr:uid="{6F0AFCFE-12AB-4B99-8C8E-B1CB48A8513E}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{27129BF5-AE9C-4F77-A3FD-1EA31A43D7B5}"/>
+    <hyperlink ref="H10" r:id="rId18" xr:uid="{30254A43-7409-40AF-A596-452A881EF547}"/>
+    <hyperlink ref="H12" r:id="rId19" xr:uid="{FB51782F-D0F0-4D99-9717-5DADEECA039B}"/>
+    <hyperlink ref="H13" r:id="rId20" xr:uid="{DD37BFC4-4EC1-427F-B97A-B5F28C4DACA8}"/>
+    <hyperlink ref="H15" r:id="rId21" xr:uid="{4548EAC3-3F71-461F-B448-F0ABCD890E3A}"/>
+    <hyperlink ref="H17" r:id="rId22" xr:uid="{6426C323-D36D-4DE9-AF35-9EB90EB9BA57}"/>
+    <hyperlink ref="H19" r:id="rId23" xr:uid="{1797E091-93FB-4459-ABF1-4AEACBFF4652}"/>
+    <hyperlink ref="H25" r:id="rId24" xr:uid="{D1C20ABD-B5F7-4CF5-A6AD-F3B7BC8DED38}"/>
+    <hyperlink ref="H29" r:id="rId25" xr:uid="{A6735A9A-89C0-4BF7-8FAB-505FEE743BC3}"/>
+    <hyperlink ref="H30" r:id="rId26" xr:uid="{FE9A8E05-0895-41CB-9151-DD336853B2AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
